--- a/data/income_statement/1digit/size/H_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/H_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>H-Transporting and storage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>H-Transporting and storage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1133 +841,1278 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11644108.81603</v>
+        <v>11989344.9115</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>15512198.53324</v>
+        <v>16102139.6923</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>19142893.84435</v>
+        <v>19865420.37679</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>21478215.12934</v>
+        <v>22151434.07856</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>23375915.4148</v>
+        <v>24368563.39842</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>29210874.38612</v>
+        <v>29659765.72528</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>32107303.48527</v>
+        <v>33182963.03905</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>34103270.12115</v>
+        <v>34592278.74172</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>44261036.97281001</v>
+        <v>45274864.79725999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>54318223.85676</v>
+        <v>52539939.01948999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>59714747.22297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>62393967.55636</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>73287819.163</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7976979.14379</v>
+        <v>8025976.41521</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10247511.02453</v>
+        <v>10437356.66683</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>12531258.49737</v>
+        <v>12730364.87716</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>14469268.77506</v>
+        <v>14744808.23109</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>15727161.30351</v>
+        <v>16306041.28121</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>19373074.28422</v>
+        <v>19660777.33367</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>21758100.47615</v>
+        <v>22449655.98013</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>23572603.20287</v>
+        <v>23778210.01103</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>29530474.89072</v>
+        <v>30121611.35494</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>32998917.75246</v>
+        <v>34175301.62862001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>37432862.94476999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>39702466.59414</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>44519346.551</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3468624.67868</v>
+        <v>3773618.97154</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4929736.311840001</v>
+        <v>5327416.9377</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6155232.234170001</v>
+        <v>6626284.64067</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6563159.50958</v>
+        <v>6952873.294879999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>7077193.032229999</v>
+        <v>7489052.561649999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9083084.745510001</v>
+        <v>9249345.032030001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9607343.841439998</v>
+        <v>9980376.333649999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9705978.34121</v>
+        <v>10019432.589</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>13681853.11605</v>
+        <v>13997447.87139</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20286070.75734</v>
+        <v>17380397.98477</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>20942052.80127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21347302.28545</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>27244062.251</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>198504.99356</v>
+        <v>189749.52475</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>334951.19687</v>
+        <v>337366.08777</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>456403.11281</v>
+        <v>508770.85896</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>445786.8447000001</v>
+        <v>453752.55259</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>571561.0790599999</v>
+        <v>573469.55556</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>754715.35639</v>
+        <v>749643.35958</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>741859.1676800001</v>
+        <v>752930.7252699999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>824688.5770699999</v>
+        <v>794636.1416900001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1048708.96604</v>
+        <v>1155805.57093</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1033235.34696</v>
+        <v>984239.4060999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1339831.47693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1344198.67677</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1524410.361</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>49472.97825</v>
+        <v>49552.00947</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>56320.56876</v>
+        <v>62705.20731</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>73147.71201999999</v>
+        <v>75838.28631</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>64489.70005</v>
+        <v>67913.38518000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>77597.85626999999</v>
+        <v>81604.99563999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>305072.93601</v>
+        <v>312312.76496</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1312992.97638</v>
+        <v>1291527.16129</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>394107.1377</v>
+        <v>395073.1262500001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>327659.16792</v>
+        <v>389815.5142300001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3720987.675049999</v>
+        <v>762096.4841700001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>784032.2111000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>979532.4059400001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1004530.647</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>29266.68598</v>
+        <v>29290.90676</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>35197.0571</v>
+        <v>37064.25215</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>59973.64301</v>
+        <v>58557.82719</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>48873.06505</v>
+        <v>49433.58772</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>42031.59983</v>
+        <v>44594.98958000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>250504.17062</v>
+        <v>255206.1499</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1253403.12678</v>
+        <v>1227265.67714</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>263404.20253</v>
+        <v>258822.00782</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>270504.44393</v>
+        <v>284865.04306</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3636947.8043</v>
+        <v>561940.74527</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>702172.5377700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>756735.7960699998</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>864079.34</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>11834.35844</v>
+        <v>11762.99499</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>11261.17238</v>
+        <v>11250.93764</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7942.784560000001</v>
+        <v>8380.836210000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7764.17334</v>
+        <v>8062.71559</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>20337.10042</v>
+        <v>20167.13412</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>29614.08006</v>
+        <v>30064.10915</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>42298.05286</v>
+        <v>44622.3223</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>31821.58921</v>
+        <v>38349.93794</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>38140.0018</v>
+        <v>85405.32090000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>47885.69453999999</v>
+        <v>171927.29212</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>58570.90581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>199240.19308</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>89470.16</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>8371.93383</v>
+        <v>8498.10772</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>9862.33928</v>
+        <v>14390.01752</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5231.28445</v>
+        <v>8899.62291</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7852.461660000001</v>
+        <v>10417.08187</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>15229.15602</v>
+        <v>16842.87194</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>24954.68533</v>
+        <v>27042.50591</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17291.79674</v>
+        <v>19639.16185</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>98881.34595999999</v>
+        <v>97901.18049000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>19014.72219</v>
+        <v>19545.15027</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>36154.17621</v>
+        <v>28228.44678</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>23288.76752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23556.41679</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>50981.147</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11594635.83778</v>
+        <v>11939792.90203</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>15455877.96448</v>
+        <v>16039434.48499</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>19069746.13233</v>
+        <v>19789582.09048</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>21413725.42929</v>
+        <v>22083520.69338</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>23298317.55853</v>
+        <v>24286958.40278</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>28905801.45011</v>
+        <v>29347452.96032</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>30794310.50889</v>
+        <v>31891435.87776</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>33709162.98345</v>
+        <v>34197205.61547</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>43933377.80489001</v>
+        <v>44885049.28303</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>50597236.18171</v>
+        <v>51777842.53532</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>58930715.01187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>61414435.15042</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>72283288.516</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>10306954.59813</v>
+        <v>10510859.08654</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>13724334.54135</v>
+        <v>14233224.44693</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>17006839.78594</v>
+        <v>17567037.71644</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>19183061.08808</v>
+        <v>19736232.26713</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>20503251.85948</v>
+        <v>21192670.82145</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>25762171.26117</v>
+        <v>25958403.74359</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>27095969.14841</v>
+        <v>27892858.71119</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>29894134.14683</v>
+        <v>30125307.30907</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>39256835.61961</v>
+        <v>39934811.82311</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>44015233.32992</v>
+        <v>44691483.51282001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>51834911.52165999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>54066961.23666999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>63387792.587</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>127677.15094</v>
+        <v>108635.50262</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>153979.72971</v>
+        <v>140341.5939</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>219582.53911</v>
+        <v>203215.2583</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>195568.48808</v>
+        <v>212621.46124</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>187224.36312</v>
+        <v>182139.2447</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>253125.56067</v>
+        <v>242324.83215</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>260709.93276</v>
+        <v>270302.34377</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>232052.81855</v>
+        <v>215659.14639</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>475803.48471</v>
+        <v>533149.4079399999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>493068.6976799999</v>
+        <v>470458.8581599999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>518000.28879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>472701.41762</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>730850.208</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1204920.94179</v>
+        <v>1200864.91714</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1573298.05733</v>
+        <v>1559462.73839</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2143546.81145</v>
+        <v>2089684.26625</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2199253.61437</v>
+        <v>2158131.9856</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2046934.21347</v>
+        <v>2060376.80734</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2918133.78621</v>
+        <v>2835396.19837</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3300146.849770001</v>
+        <v>3219009.05709</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3452418.16414</v>
+        <v>3289405.12462</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6144900.25393</v>
+        <v>6072829.40269</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3811913.554579999</v>
+        <v>3562604.00776</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4532918.92869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4308809.57807</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7755192.871</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>8893431.974949999</v>
+        <v>9121406.22168</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>11934475.28011</v>
+        <v>12473162.77196</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14580391.433</v>
+        <v>15192675.61711</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>16683323.8254</v>
+        <v>17245583.70649</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>18205560.06901</v>
+        <v>18852495.30919</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>22436281.50292</v>
+        <v>22738577.31873</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>23361334.46134</v>
+        <v>24232971.1909</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>26006457.90465</v>
+        <v>26423160.2179</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>32353944.21086999</v>
+        <v>33001601.74204</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>39409153.25024001</v>
+        <v>40370071.74511</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>46448053.92298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49008443.80797999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>54465886.383</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>80924.53045000001</v>
+        <v>79952.4451</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>62581.4742</v>
+        <v>60257.34268</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>63319.00238000001</v>
+        <v>81462.57477999997</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>104915.16023</v>
+        <v>119895.1138</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>63533.21388</v>
+        <v>97659.46021999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>154630.41137</v>
+        <v>142105.39434</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>173777.90454</v>
+        <v>170576.11943</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>203205.25949</v>
+        <v>197082.82016</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>282187.6701</v>
+        <v>327231.2704399999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>301097.82742</v>
+        <v>288348.90179</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>335938.3812000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>277006.433</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>435863.125</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1287681.23965</v>
+        <v>1428933.81549</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1731543.42313</v>
+        <v>1806210.03806</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2062906.34639</v>
+        <v>2222544.37404</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2230664.34121</v>
+        <v>2347288.42625</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2795065.69905</v>
+        <v>3094287.58133</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3143630.18894</v>
+        <v>3389049.21673</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3698341.36048</v>
+        <v>3998577.16657</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3815028.83662</v>
+        <v>4071898.3064</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4676542.18528</v>
+        <v>4950237.45992</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6582002.851790001</v>
+        <v>7086359.0225</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7095803.490209999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7347473.91375</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8895495.929</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1106716.29757</v>
+        <v>1157137.37511</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1339204.58484</v>
+        <v>1401975.3176</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1621322.85722</v>
+        <v>1685656.96552</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1846362.24636</v>
+        <v>1906153.5811</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2190941.88489</v>
+        <v>2267878.29842</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2520042.7857</v>
+        <v>2666306.23474</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2807690.32924</v>
+        <v>3097150.78007</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3092500.996979999</v>
+        <v>3257238.96699</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3760128.26717</v>
+        <v>4078294.95003</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4004275.24466</v>
+        <v>4361720.83234</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4673005.317849999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5389866.03711</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5364784.455</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3900.91879</v>
+        <v>2067.42645</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>585.8326</v>
+        <v>582.77988</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3875.190930000001</v>
+        <v>8267.05314</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3719.80033</v>
+        <v>3595.59875</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3381.24076</v>
+        <v>3409.91485</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5507.60135</v>
+        <v>5501.46333</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>52804.00538</v>
+        <v>52791.37795999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>55646.98924</v>
+        <v>71660.94331999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>77564.73305</v>
+        <v>77568.62355000002</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>748.36686</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>98137.48877000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>94750.92846000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>104902.091</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>131056.18292</v>
+        <v>169519.28846</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>177750.10072</v>
+        <v>176288.12096</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>223891.25382</v>
+        <v>232984.19938</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>257967.54125</v>
+        <v>258310.02576</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>304675.1640399999</v>
+        <v>356710.38789</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>378763.60989</v>
+        <v>379291.4658900001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>365469.28197</v>
+        <v>416176.90963</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>471888.81774</v>
+        <v>467560.79243</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>796328.1350199998</v>
+        <v>803680.80006</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>687370.66637</v>
+        <v>709690.6589500001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>618988.54877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>665878.68077</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>918032.887</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>971759.19586</v>
+        <v>985550.6602</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1160868.65152</v>
+        <v>1225104.41676</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1393556.41247</v>
+        <v>1444405.713</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1584674.90478</v>
+        <v>1644247.95659</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1882885.48009</v>
+        <v>1907757.99568</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2135771.57446</v>
+        <v>2281513.30552</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2389417.04189</v>
+        <v>2628182.49248</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2564965.19</v>
+        <v>2718017.23124</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2886235.399100001</v>
+        <v>3197045.52642</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3316156.21143</v>
+        <v>3651281.80653</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3955879.28031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4629236.42788</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4341849.477</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>180964.94208</v>
+        <v>271796.44038</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>392338.83829</v>
+        <v>404234.7204599999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>441583.48917</v>
+        <v>536887.4085199999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>384302.0948499999</v>
+        <v>441134.84515</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>604123.81416</v>
+        <v>826409.28291</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>623587.40324</v>
+        <v>722742.9819900001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>890651.03124</v>
+        <v>901426.3865</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>722527.83964</v>
+        <v>814659.33941</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>916413.91811</v>
+        <v>871942.5098899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2577727.60713</v>
+        <v>2724638.19016</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2422798.17236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1957607.87664</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3530711.474</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>637176.69351</v>
+        <v>883692.18984</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>690245.1237900001</v>
+        <v>831979.84981</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>778921.2767200001</v>
+        <v>954474.3434199999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>619487.30394</v>
+        <v>901424.20632</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1006472.56632</v>
+        <v>1238953.65872</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1252982.80269</v>
+        <v>1608794.80913</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1800692.18293</v>
+        <v>2442535.6127</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1621806.66128</v>
+        <v>1837732.26706</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2202087.94516</v>
+        <v>2771249.9087</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6511621.116709999</v>
+        <v>6649551.4794</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3914303.75954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5134261.47419</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8491778.972999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>18059.92099</v>
+        <v>10644.74426</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>36484.2693</v>
+        <v>17591.53066</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>7816.01939</v>
+        <v>43420.22691</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>21057.22297</v>
+        <v>50499.05865</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>28066.58586</v>
+        <v>17137.37631</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>54747.73611</v>
+        <v>32205.93052</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>34871.77962</v>
+        <v>19303.50458</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>62419.11424</v>
+        <v>14441.95535</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>149960.78111</v>
+        <v>16082.81926</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>132653.04046</v>
+        <v>43951.48013999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>95299.94387999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>77013.55984999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>21839.877</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>3312.50019</v>
+        <v>12333.01587</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9384.37009</v>
+        <v>23012.58958</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>4200.077149999999</v>
+        <v>26861.36165</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1620.62375</v>
+        <v>12720.45656</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>15651.40092</v>
+        <v>30751.77963</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>25547.48269</v>
+        <v>63444.98902</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10030.77192</v>
+        <v>184522.12097</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>23072.90296</v>
+        <v>17364.08296</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>22684.97141</v>
+        <v>212111.7238</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>85533.52937999999</v>
+        <v>92518.12757000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>117543.51329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>285768.59527</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>40612.597</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>63854.49336</v>
+        <v>74088.91587999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>53222.99309</v>
+        <v>70706.34956</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>53065.25437</v>
+        <v>67225.86092000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>62605.97621</v>
+        <v>84062.93430999998</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>76421.43309000001</v>
+        <v>107435.84451</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>98712.43465000001</v>
+        <v>133416.73094</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>89858.77859</v>
+        <v>145494.39333</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>107339.6791</v>
+        <v>137785.15047</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>141796.89352</v>
+        <v>193440.71545</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>314486.5416300001</v>
+        <v>295194.043</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>388692.7069999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>413326.1401500001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>323265.389</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>18965.34157</v>
+        <v>13334.86758</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>18909.89824</v>
+        <v>17439.44428</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>13776.57503</v>
+        <v>15234.73036</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>13009.53212</v>
+        <v>12708.18042</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>9979.70462</v>
+        <v>10265.64623</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>14258.46097</v>
+        <v>15374.99098</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>46008.91826</v>
+        <v>12807.36831</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>14179.0156</v>
+        <v>10536.05116</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>28634.54954</v>
+        <v>37096.28758</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>20360.16876</v>
+        <v>20092.37707</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>37229.18703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>30272.58853</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>16858.457</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3886.90614</v>
+        <v>5596.38813</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3515.7193</v>
+        <v>4319.27196</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6447.042950000001</v>
+        <v>9050.42577</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2531.13699</v>
+        <v>2424.85167</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7726.98836</v>
+        <v>15353.51477</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>10157.74896</v>
+        <v>8841.316899999998</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10546.87998</v>
+        <v>16672.75467</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>9389.466170000002</v>
+        <v>12233.28987</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>18648.47283</v>
+        <v>19469.21738</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>27690.34835</v>
+        <v>28338.31425</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>132831.36192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>135739.80676</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>61537.858</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4690.80709</v>
+        <v>13750.34783</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4437.22465</v>
+        <v>8024.52768</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>5870.94087</v>
+        <v>4029.40626</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5129.99803</v>
+        <v>4360.56865</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>7354.164319999999</v>
+        <v>17920.54792</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>14969.68376</v>
+        <v>9458.387600000002</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7382.39</v>
+        <v>11195.09698</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>14244.904</v>
+        <v>76495.2877</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>11918.20398</v>
+        <v>9057.080390000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>20174.12572</v>
+        <v>11202.0218</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10502.42696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>46004.37016999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>63612.619</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>420064.70196</v>
+        <v>575487.38903</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>470947.1359999999</v>
+        <v>587556.06041</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>569740.56489</v>
+        <v>670718.15509</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>390727.34565</v>
+        <v>600402.42637</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>716272.40884</v>
+        <v>901714.08604</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>838720.2815500002</v>
+        <v>1097502.08877</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1412489.64937</v>
+        <v>1836433.904</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1156485.51687</v>
+        <v>1337369.37265</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1214546.31961</v>
+        <v>1699625.72365</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5530886.41934</v>
+        <v>5776909.99097</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2614712.61246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3518508.56827</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7221007.881</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1840.39921</v>
+        <v>1817.95828</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>54.97389</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>910.8082500000002</v>
+        <v>910.1032</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1637.73487</v>
+        <v>532.71736</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>5803.481569999999</v>
+        <v>5783.591469999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>4468.872679999999</v>
+        <v>3858.88038</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3558.11968</v>
+        <v>2632.91841</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>815.4253200000001</v>
+        <v>206.63971</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>417.52772</v>
+        <v>463.54873</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>801.77897</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>581.2329500000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>164.008</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>180.16669</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>50.26616000000001</v>
+        <v>21.43986</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>9.380559999999999</v>
@@ -2102,7 +2153,7 @@
         <v>441.95892</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>43.29242</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>1129.17971</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>119.61939</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>102321.45631</v>
+        <v>176458.39629</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>93238.27307000001</v>
+        <v>103253.66193</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>117084.61326</v>
+        <v>117014.6927</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>121167.73335</v>
+        <v>133713.01233</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>138871.98308</v>
+        <v>132266.85618</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>190775.03247</v>
+        <v>244066.42517</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>185502.93659</v>
+        <v>213031.59253</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>233817.3446</v>
+        <v>231300.43719</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>612351.04573</v>
+        <v>582773.61275</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>378592.62201</v>
+        <v>380100.8035399999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>516791.1546599999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>626926.99285</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>742880.287</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>475330.66064</v>
+        <v>589879.19972</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>517091.3407299999</v>
+        <v>615216.44465</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>733364.36575</v>
+        <v>935533.5704000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>449992.79778</v>
+        <v>578742.3828499999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>955945.1239300001</v>
+        <v>1224790.2136</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>987747.94658</v>
+        <v>1326002.04201</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1646971.06964</v>
+        <v>2100025.38306</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1363013.6847</v>
+        <v>1624936.78701</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1505653.69885</v>
+        <v>1977854.42516</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6056374.62934</v>
+        <v>6566284.02872</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2984107.18177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4434860.98857</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8078822.648</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>9382.034820000001</v>
+        <v>11638.36095</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6154.856640000001</v>
+        <v>9345.251179999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>13399.20503</v>
+        <v>16725.53057</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>16651.20828</v>
+        <v>20653.67726</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6577.78202</v>
+        <v>15444.62311</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>13742.82225</v>
+        <v>17774.4435</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8235.136689999999</v>
+        <v>11179.2836</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>9842.614150000001</v>
+        <v>13979.76737</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>25158.89315</v>
+        <v>29467.70054</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14780.66021</v>
+        <v>19035.59635</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>19263.73163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23619.25282</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>15219.925</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>24676.01063</v>
+        <v>23060.178</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>12820.34047</v>
+        <v>15861.11948</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>13649.39055</v>
+        <v>14614.84285</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>36097.16185</v>
+        <v>37299.54905</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>27001.5297</v>
+        <v>28752.57695</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>31144.12332</v>
+        <v>45779.7143</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>46335.81279</v>
+        <v>63116.91417</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36108.53072</v>
+        <v>54025.10548000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>42725.09417</v>
+        <v>58326.11053</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>126152.51728</v>
+        <v>133291.30676</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>108286.37551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>117257.48875</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>100979.088</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>785.9384500000001</v>
+        <v>2934.92271</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1406.84399</v>
+        <v>1972.49753</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5244.61231</v>
+        <v>2189.77837</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3743.88725</v>
+        <v>1144.70854</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3588.96075</v>
+        <v>1748.68927</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2052.88139</v>
+        <v>2403.73677</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6858.8207</v>
+        <v>5516.820130000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6669.81146</v>
+        <v>1931.80354</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>3043.64939</v>
+        <v>3419.0607</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>21778.40372</v>
+        <v>20649.17071</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>42598.3384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>54046.5408</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>34185.892</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>382225.70115</v>
+        <v>501527.33203</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>433885.74217</v>
+        <v>525162.17993</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>635502.7127200001</v>
+        <v>837353.67727</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>341052.14774</v>
+        <v>470327.06574</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>840780.7365099998</v>
+        <v>1128634.88394</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>843520.99305</v>
+        <v>1155738.3776</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1513911.52426</v>
+        <v>1953154.42378</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1216938.2955</v>
+        <v>1471250.85309</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1331836.54145</v>
+        <v>1784547.85381</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5720148.88477</v>
+        <v>6224858.86049</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2566101.68225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3871755.39222</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7656204.297</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1873.68028</v>
+        <v>1774.08448</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>762.44147</v>
+        <v>763.3668399999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1199.54984</v>
+        <v>1075.30667</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1732.82841</v>
+        <v>1000.45506</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>7196.77347</v>
+        <v>7012.91422</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6515.702169999999</v>
+        <v>6383.10831</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2490.59646</v>
+        <v>2142.64604</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1552.59902</v>
+        <v>1654.52695</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1240.42205</v>
+        <v>2838.28066</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>376.1857</v>
+        <v>397.77738</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1086.65197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>235.44882</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>155.44</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>47.38668</v>
@@ -2399,25 +2490,25 @@
         <v>5.11253</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.53616</v>
+        <v>0.003</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0.0141</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>34.51164</v>
+        <v>17.08619</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>2.07604</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2188.7236</v>
+        <v>53.17325999999999</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>145.65744</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>412.38303</v>
+        <v>389.29992</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>56339.90863</v>
+        <v>48896.93487</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>62056.00345999999</v>
+        <v>62106.91716</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>64368.35914</v>
+        <v>63574.43167000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>50715.55015</v>
+        <v>48316.9131</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>70764.82983999999</v>
+        <v>43179.43992</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>90769.34836</v>
+        <v>97920.58549000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>66950.45514000001</v>
+        <v>64862.12208000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>91756.17641</v>
+        <v>81949.07314000002</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>101236.71561</v>
+        <v>98866.11900000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>173137.97766</v>
+        <v>168051.31703</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>246770.40201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>367946.86516</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>272078.006</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>293580.41423</v>
+        <v>369726.05749</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>288262.7270499999</v>
+        <v>355206.27513</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>407142.95893</v>
+        <v>583898.9450200001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>428594.13294</v>
+        <v>465027.95965</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>533526.6951</v>
+        <v>660387.1444700001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>547189.7793900002</v>
+        <v>655050.1145899999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>667973.1668100001</v>
+        <v>929605.8076599999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>805435.29036</v>
+        <v>986564.57189</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>908586.05714</v>
+        <v>1229562.98327</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1767084.9357</v>
+        <v>1874430.92473</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1595790.20479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2420333.89492</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2374720.53</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>242479.38759</v>
+        <v>267514.13466</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>241112.55239</v>
+        <v>248082.01798</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>340836.93735</v>
+        <v>390841.66004</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>348269.0823300001</v>
+        <v>394479.7861799999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>425775.14453</v>
+        <v>468241.4037399999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>466921.4436</v>
+        <v>516654.42594</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>554295.0361499999</v>
+        <v>623165.86572</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>664733.4365900001</v>
+        <v>701594.9684800002</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>791783.5760499999</v>
+        <v>956127.5500999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1451870.37507</v>
+        <v>1488214.69145</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1394515.57867</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1766108.72747</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1914215.665</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>51101.02664</v>
+        <v>102211.92283</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>47150.17466</v>
+        <v>107124.25715</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>66306.02158</v>
+        <v>193057.28498</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>80325.05061000001</v>
+        <v>70548.17346999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>107751.55057</v>
+        <v>192145.74073</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>80268.33579</v>
+        <v>138395.68865</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>113678.13066</v>
+        <v>306439.9419399999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>140701.85377</v>
+        <v>284969.60341</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>116802.48109</v>
+        <v>273435.43317</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>315214.56063</v>
+        <v>386216.23328</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>201274.62612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>654225.1674500001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>460504.865</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>49230.56071999999</v>
+        <v>195883.37301</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>277229.8943</v>
+        <v>265791.85049</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>79997.44121</v>
+        <v>-28070.76348</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>125202.46807</v>
+        <v>298788.70897</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>121124.56145</v>
+        <v>180185.58356</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>341632.47996</v>
+        <v>350485.63452</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>376398.97772</v>
+        <v>314330.80848</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>175885.52586</v>
+        <v>40890.24757000002</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>704262.10728</v>
+        <v>435775.01016</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1265889.1588</v>
+        <v>933474.7161100002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1757204.54534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>236674.4673399999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1568947.269</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>226252.36138</v>
+        <v>222391.13273</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>249564.01907</v>
+        <v>191287.93312</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>281112.28004</v>
+        <v>307660.50941</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>385918.91195</v>
+        <v>398323.24747</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>465405.32312</v>
+        <v>621911.5304200001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>464714.78946</v>
+        <v>411972.59514</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>493154.57288</v>
+        <v>568347.76372</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>568510.39827</v>
+        <v>702857.72013</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>603468.27016</v>
+        <v>844974.3614099999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>734913.24605</v>
+        <v>793493.27991</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>968664.47373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1130473.71219</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1188969.645</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>5685.63762</v>
+        <v>6165.565550000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3255.43817</v>
+        <v>5090.90982</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>5526.773279999999</v>
+        <v>6800.2783</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5581.13678</v>
+        <v>7723.986930000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6877.523990000001</v>
+        <v>8499.597370000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4603.67494</v>
+        <v>6160.260679999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5211.86484</v>
+        <v>7039.44976</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>9892.511400000001</v>
+        <v>29828.25453999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6858.50207</v>
+        <v>8524.697840000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7584.80915</v>
+        <v>9998.99402</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>11600.42223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>16916.35927</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>9817.957</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>220566.72376</v>
+        <v>216225.56718</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>246308.5809</v>
+        <v>186197.0233</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>275585.5067600001</v>
+        <v>300860.23111</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>380337.77517</v>
+        <v>390599.26054</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>458527.7991300001</v>
+        <v>613411.93305</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>460111.11452</v>
+        <v>405812.33446</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>487942.7080399999</v>
+        <v>561308.3139600001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>558617.88687</v>
+        <v>673029.46559</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>596609.76809</v>
+        <v>836449.6635700001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>727328.4369</v>
+        <v>783494.2858899999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>957064.0515000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1113557.35292</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1179151.688</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>116674.87896</v>
+        <v>132169.77957</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>203729.17411</v>
+        <v>183285.81466</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>675962.6417200001</v>
+        <v>674860.77572</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>317277.67107</v>
+        <v>266908.54338</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>261709.67582</v>
+        <v>306189.59404</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>482833.90929</v>
+        <v>462690.69684</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>341463.0225000001</v>
+        <v>369688.5813</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>669787.84902</v>
+        <v>659319.5762799999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>409752.29798</v>
+        <v>608629.1924300001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>784204.4238399999</v>
+        <v>637512.30397</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>618468.34059</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>726019.21236</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>529729.834</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>7286.42212</v>
+        <v>5511.52034</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6908.60484</v>
+        <v>3105.07515</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>7874.79367</v>
+        <v>4991.428980000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>8214.63726</v>
+        <v>14226.08153</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>9684.633600000001</v>
+        <v>10129.31736</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>9847.446370000001</v>
+        <v>18446.41109000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11605.55334</v>
+        <v>31640.17818</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>16922.41749</v>
+        <v>30597.91976</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>15128.65114</v>
+        <v>17826.72473</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>28662.10558</v>
+        <v>30245.89461</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>21406.05769</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>33086.26067</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>25369.434</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>14077.84276</v>
+        <v>30464.74846</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9682.004219999999</v>
+        <v>23389.59882</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>42419.84372</v>
+        <v>25814.713</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>17323.82789</v>
+        <v>19234.70456</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>12651.50829</v>
+        <v>12275.87592</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11236.07792</v>
+        <v>16509.36119</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>16374.17654</v>
+        <v>80791.91392000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>14310.91398</v>
+        <v>32819.63132</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>12790.69733</v>
+        <v>77892.09951999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>21492.85438</v>
+        <v>19958.02021000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>32532.3548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>148128.07406</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>26879.06</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>95310.61408000001</v>
+        <v>96193.51077000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>187138.56505</v>
+        <v>156791.14069</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>625668.00433</v>
+        <v>644054.63374</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>291739.20592</v>
+        <v>233447.75729</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>239373.53393</v>
+        <v>283784.40076</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>461750.385</v>
+        <v>427734.92456</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>313483.29262</v>
+        <v>257256.4892</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>638554.51755</v>
+        <v>595902.0251999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>381832.94951</v>
+        <v>512910.3681799999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>734049.4638799999</v>
+        <v>587308.3891500001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>564529.9280999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>544804.87763</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>477481.34</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>158808.04314</v>
+        <v>286104.72617</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>323064.73926</v>
+        <v>273793.9689500001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-314852.92047</v>
+        <v>-395271.02979</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>193843.70895</v>
+        <v>430203.41306</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>324820.20875</v>
+        <v>495907.51994</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>323513.36013</v>
+        <v>299767.53282</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>528090.5281</v>
+        <v>512989.9909</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>74608.07510999998</v>
+        <v>84428.39142</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>897978.07946</v>
+        <v>672120.1791399999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1216597.98101</v>
+        <v>1089455.69205</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2107400.67848</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>641128.96717</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2228187.08</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>66866.34238</v>
+        <v>70662.75622999998</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>100504.68723</v>
+        <v>98976.76416000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>99222.45354999999</v>
+        <v>109530.76133</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>102272.68345</v>
+        <v>108473.42157</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>147740.6446</v>
+        <v>165178.89765</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>165210.6396</v>
+        <v>172878.24898</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>192877.87351</v>
+        <v>194843.15903</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>191265.78279</v>
+        <v>196761.53096</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>249809.10067</v>
+        <v>242307.97173</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>443261.32057</v>
+        <v>467671.53204</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>515569.73917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>521100.62956</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>664551.351</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>91941.70075999998</v>
+        <v>215441.96994</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>222560.05203</v>
+        <v>174817.20479</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-414075.37402</v>
+        <v>-504801.79112</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>91571.02550000003</v>
+        <v>321729.99149</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>177079.56415</v>
+        <v>330728.62229</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>158302.72053</v>
+        <v>126889.28384</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>335212.65459</v>
+        <v>318146.8318700001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-116657.70768</v>
+        <v>-112333.13954</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>648168.97879</v>
+        <v>429812.2074099999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>773336.6604399999</v>
+        <v>621784.16001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1591830.93931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>120028.33761</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1563635.729</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1335</v>
+        <v>994</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1550</v>
+        <v>1197</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1786</v>
+        <v>1429</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2092</v>
+        <v>1650</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1755</v>
+        <v>1406</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2009</v>
+        <v>1570</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2169</v>
+        <v>1717</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2384</v>
+        <v>1821</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2801</v>
+        <v>2187</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1724</v>
+        <v>1496</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1531</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>